--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmelhowe/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7F6E1-2B19-6E4E-9F7D-F8E302C45A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BEFEA3-BD1B-3544-9520-C134170FCF7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{ABC11F1F-BE60-D349-BB12-5EF0CFF65253}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" activeTab="1" xr2:uid="{ABC11F1F-BE60-D349-BB12-5EF0CFF65253}"/>
   </bookViews>
   <sheets>
     <sheet name="TestsPerformed" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="References" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>UK</t>
   </si>
@@ -43,15 +45,81 @@
   <si>
     <t>Italy</t>
   </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/coronavirus-testing-covid-19-tests-per-capita-chart-us-behind-2020-3?r=US&amp;IR=T</t>
+  </si>
+  <si>
+    <t>https://github.com/pcm-dpc/COVID-19/blob/master/schede-riepilogative/regioni/dpc-covid19-ita-scheda-regioni-20200310.pdf</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA </t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/2019-ncov/testing-in-us.html</t>
+  </si>
+  <si>
+    <t>Date Collected</t>
+  </si>
+  <si>
+    <t>CDC Labs</t>
+  </si>
+  <si>
+    <t>US Public Health Labs</t>
+  </si>
+  <si>
+    <t>Total per Day</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,14 +142,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,62 +472,1248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD64B195-20E5-844F-B5BA-B7BB2DF505EC}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C1" s="1">
+        <v>43893</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43894</v>
+      </c>
+      <c r="E1" s="1">
+        <v>43895</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43896</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43897</v>
+      </c>
+      <c r="H1" s="1">
         <v>43898</v>
       </c>
-      <c r="C1" s="1">
+      <c r="I1" s="1">
         <v>43899</v>
       </c>
-      <c r="D1" s="1">
+      <c r="J1" s="1">
         <v>43900</v>
       </c>
-      <c r="E1" s="1">
+      <c r="K1" s="1">
         <v>43901</v>
       </c>
-      <c r="F1" s="1">
+      <c r="L1" s="1">
         <v>43902</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <v>23345</v>
+      </c>
+      <c r="C2">
+        <v>25856</v>
+      </c>
+      <c r="D2">
+        <v>29837</v>
+      </c>
+      <c r="E2">
+        <v>32362</v>
+      </c>
+      <c r="F2">
+        <v>36359</v>
+      </c>
+      <c r="G2">
+        <v>42062</v>
+      </c>
+      <c r="H2">
         <v>49937</v>
       </c>
-      <c r="D2">
+      <c r="I2">
+        <v>53826</v>
+      </c>
+      <c r="J2">
         <v>60761</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>189236</v>
+      </c>
+      <c r="I3">
+        <v>196618</v>
+      </c>
+      <c r="J3">
+        <v>210144</v>
+      </c>
+      <c r="K3" s="5">
+        <v>222395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>26261</v>
       </c>
-      <c r="E3">
+      <c r="K4">
         <v>27476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>472</v>
+      </c>
+      <c r="H5">
         <v>1707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE303814-68E7-414A-AEB5-2551A323132D}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>43848</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>C5+B5</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>D5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>43849</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D57" si="0">C6+B6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>D6+E5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>43850</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E57" si="1">D7+E6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>43851</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>43852</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>43853</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>43854</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>43855</v>
+      </c>
+      <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>43856</v>
+      </c>
+      <c r="B13">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>43857</v>
+      </c>
+      <c r="B14">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>43858</v>
+      </c>
+      <c r="B15">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>43859</v>
+      </c>
+      <c r="B16">
+        <v>404</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>43860</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>43861</v>
+      </c>
+      <c r="B18">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>43862</v>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>43863</v>
+      </c>
+      <c r="B20">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>43864</v>
+      </c>
+      <c r="B21">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>43865</v>
+      </c>
+      <c r="B22">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>43866</v>
+      </c>
+      <c r="B23">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>43867</v>
+      </c>
+      <c r="B24">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>43868</v>
+      </c>
+      <c r="B25">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>43869</v>
+      </c>
+      <c r="B26">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>43870</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>43871</v>
+      </c>
+      <c r="B28">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>43872</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>43873</v>
+      </c>
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>43874</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>43875</v>
+      </c>
+      <c r="B32">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>43876</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>43877</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>43878</v>
+      </c>
+      <c r="B35">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>43879</v>
+      </c>
+      <c r="B36">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>43880</v>
+      </c>
+      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>43881</v>
+      </c>
+      <c r="B38">
+        <v>226</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>43882</v>
+      </c>
+      <c r="B39">
+        <v>290</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>43883</v>
+      </c>
+      <c r="B40">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>43884</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>43885</v>
+      </c>
+      <c r="B42">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>43886</v>
+      </c>
+      <c r="B43">
+        <v>109</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43887</v>
+      </c>
+      <c r="B44">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>43888</v>
+      </c>
+      <c r="B45">
+        <v>104</v>
+      </c>
+      <c r="C45">
+        <v>109</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>43889</v>
+      </c>
+      <c r="B46">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>143</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>43890</v>
+      </c>
+      <c r="B47">
+        <v>84</v>
+      </c>
+      <c r="C47">
+        <v>251</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>43891</v>
+      </c>
+      <c r="B48">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>192</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B49">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>457</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>43893</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>665</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>43894</v>
+      </c>
+      <c r="B51">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>939</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>43895</v>
+      </c>
+      <c r="B52">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>1192</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1246</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>7815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>43896</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>1155</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1171</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>43897</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>947</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>947</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>9933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>43898</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>741</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>10674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>43899</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>396</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>43900</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <f>3971+7288</f>
+        <v>11259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48F9ACE-F582-7942-A346-9F04222FD307}">
+  <dimension ref="A4:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{CC701D4D-F216-E243-A222-1BDFC7F74440}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{34847655-B798-6E44-A0A4-93FB494BDA1D}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{F81C93D0-BB85-A748-A87F-80DD04125B05}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{95278AC9-CC6A-B247-9E60-AE1A7BAE5C2C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>